--- a/document/TestCase.xlsx
+++ b/document/TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\selenium-grid\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD126A1-F227-4110-9F97-095C1890AF71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E69D8CA-FF69-4D88-A215-F21F5B47C76C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t>Test case ID</t>
   </si>
@@ -98,13 +98,99 @@
   </si>
   <si>
     <t>Manager User</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>1. Thông tin đăng nhập sai</t>
+  </si>
+  <si>
+    <t>5. Kiểm tra đăng nhập thất bại</t>
+  </si>
+  <si>
+    <t>username: unknowname"
+password: P@ssword2</t>
+  </si>
+  <si>
+    <t>Xác nhận người dùng không sử dụng được phần mềm nếu thông tin đăng nhập sai</t>
+  </si>
+  <si>
+    <t>Người dùng được chuyển đến trang chính</t>
+  </si>
+  <si>
+    <t>Trang web hiển thị alert "wrong username or password"</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: tiktzuki
+password: P@ssword"
+</t>
+  </si>
+  <si>
+    <t>1. Mở trình duyệt và đi đến trang web "http://localhost:4200"</t>
+  </si>
+  <si>
+    <t>2. Click vào nút "Create Account"</t>
+  </si>
+  <si>
+    <t>3. Nhập thông tin tài khoản mới</t>
+  </si>
+  <si>
+    <t>4. Click vào nút Sign-up</t>
+  </si>
+  <si>
+    <t>username: newUser
+password: P@ssword1
+confirm password: P@ssword1
+email: newuser@gmail.com
+phone number: 091234556</t>
+  </si>
+  <si>
+    <t>1. username không có trong database</t>
+  </si>
+  <si>
+    <t>success!!!</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>username: tiktzuki
+password: P@ssword1
+confirm password: P@ssword1
+email: newuser@gmail.com
+phone number: 091234557</t>
+  </si>
+  <si>
+    <t>1. username đã tồn tại trong database</t>
+  </si>
+  <si>
+    <t>user is already exists</t>
+  </si>
+  <si>
+    <t>5. Kiểm tra alert user đã tồn tại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Kiểm tra alert đăng ký thành công </t>
+  </si>
+  <si>
+    <t>Tài khoản mới không được tạo</t>
+  </si>
+  <si>
+    <t>Một tài khoản mới được thêm vào database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +202,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -167,13 +259,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -181,11 +294,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G43"/>
+  <dimension ref="A2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,59 +639,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="5"/>
@@ -546,222 +708,534 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B24" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C24" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F24" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G24" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="25" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="11"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G45" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G51" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G58" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="23">
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="A23:G23"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="G4:G9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="G10:G15"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>